--- a/Excel/Numeric.xlsx
+++ b/Excel/Numeric.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VisiualStudio\ET-SS\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VisiualStudio\ET-8\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E90E306-F838-48B7-936E-D38DCE990A25}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEDC823-DDEE-491E-9699-33D8CD4D4CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Numeric" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
   <si>
     <t>Id</t>
   </si>
@@ -164,10 +164,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>经验</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Strength</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -192,10 +188,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Exp</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>AttrPoint</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -205,6 +197,22 @@
   </si>
   <si>
     <t>Hp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理护盾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法护盾</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mp</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -619,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J21"/>
+  <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -865,7 +873,7 @@
         <v>29</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" s="7">
         <v>0</v>
@@ -888,7 +896,7 @@
         <v>30</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="7">
         <v>0</v>
@@ -911,7 +919,7 @@
         <v>31</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7">
         <v>0</v>
@@ -935,7 +943,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" s="7">
         <v>0</v>
@@ -958,7 +966,7 @@
         <v>33</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F17" s="7">
         <v>0</v>
@@ -981,7 +989,7 @@
         <v>34</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F18" s="7">
         <v>0</v>
@@ -1004,7 +1012,7 @@
         <v>35</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F19" s="7">
         <v>0</v>
@@ -1024,19 +1032,19 @@
         <v>3008</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="I20" s="5" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J20" s="7">
         <v>111</v>
@@ -1046,23 +1054,46 @@
       <c r="C21" s="7">
         <v>3009</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C22" s="7">
+        <v>3010</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="7">
-        <v>0</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21" s="7">
-        <v>111</v>
+      <c r="E22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Numeric.xlsx
+++ b/Excel/Numeric.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VisiualStudio\ET-8\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEDC823-DDEE-491E-9699-33D8CD4D4CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAA2F4A-4177-4525-A485-C3BCAB921907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="77">
   <si>
     <t>Id</t>
   </si>
@@ -213,6 +213,105 @@
   </si>
   <si>
     <t>Mp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Symptom</t>
+  </si>
+  <si>
+    <t>症状</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CirtRate</t>
+  </si>
+  <si>
+    <t>CirtDamage</t>
+  </si>
+  <si>
+    <t>FireAdd</t>
+  </si>
+  <si>
+    <t>FireAvoid</t>
+  </si>
+  <si>
+    <t>ThunderAdd</t>
+  </si>
+  <si>
+    <t>ThunderAvoid</t>
+  </si>
+  <si>
+    <t>IceAdd</t>
+  </si>
+  <si>
+    <t>IceAvoid</t>
+  </si>
+  <si>
+    <t>HurtAddRate</t>
+  </si>
+  <si>
+    <t>HurtReduceRate</t>
+  </si>
+  <si>
+    <t>AttackSpeed</t>
+  </si>
+  <si>
+    <t>HitRate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AvoidRate</t>
+  </si>
+  <si>
+    <t>暴击几率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火属性强化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火属性抗性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷属性强化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷属性抗性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰属性强化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰属性抗性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害增加比例 万比</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害减少比例 万比</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击速度 影响技能冷却时间和技能吟唱时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中几率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避几率</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -220,7 +319,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +369,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color rgb="FF66C3CC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -297,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -322,6 +428,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J22"/>
+  <dimension ref="B2:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -638,7 +747,7 @@
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.625" style="2" customWidth="1"/>
     <col min="3" max="4" width="12.625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="7.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="7" customWidth="1"/>
     <col min="6" max="6" width="12.25" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.25" style="7" customWidth="1"/>
     <col min="8" max="10" width="12.25" style="7" bestFit="1" customWidth="1"/>
@@ -861,238 +970,626 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="1">
+        <v>1005</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="1">
+        <v>1006</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C14" s="1">
+        <v>1007</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C15" s="1">
+        <v>1008</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="1">
+        <v>1009</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="1">
+        <v>1010</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="1">
+        <v>1011</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J19" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C20" s="1">
+        <v>1013</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C21" s="1">
+        <v>1014</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J21" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C22" s="1">
+        <v>1015</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J22" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C23" s="1">
+        <v>1016</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C24" s="1">
+        <v>1017</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J24" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C25" s="1">
+        <v>1018</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J25" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="B26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="11"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="2"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="2"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="2"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="2"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="5"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C13" s="7">
+    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C33" s="7">
         <v>3001</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F33" s="7">
         <v>0</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H33" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I33" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J33" s="7">
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C14" s="7">
+    <row r="34" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C34" s="7">
         <v>3002</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F34" s="7">
         <v>0</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J34" s="7">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C15" s="7">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C35" s="7">
         <v>3003</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F35" s="7">
         <v>0</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="5" t="s">
+      <c r="G35" s="1"/>
+      <c r="H35" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I35" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J35" s="7">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C16" s="7">
+    <row r="36" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C36" s="7">
         <v>3004</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F36" s="7">
         <v>0</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H36" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I36" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J36" s="7">
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C17" s="7">
+    <row r="37" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C37" s="7">
         <v>3005</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F37" s="7">
         <v>0</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H37" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I37" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J37" s="7">
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C18" s="7">
+    <row r="38" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C38" s="7">
         <v>3006</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F38" s="7">
         <v>0</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H38" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I38" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J38" s="7">
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C19" s="7">
+    <row r="39" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C39" s="7">
         <v>3007</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D39" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E39" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F39" s="7">
         <v>0</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H39" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I39" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J39" s="7">
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C20" s="7">
+    <row r="40" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C40" s="7">
         <v>3008</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F40" s="7">
         <v>0</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H40" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I40" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J40" s="7">
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C21" s="7">
+    <row r="41" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C41" s="7">
         <v>3009</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E41" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F41" s="7">
         <v>0</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H41" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I41" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J41" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C22" s="7">
+    <row r="42" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C42" s="7">
         <v>3010</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E42" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F42" s="7">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H42" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I42" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J42" s="7">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Numeric.xlsx
+++ b/Excel/Numeric.xlsx
@@ -2,19 +2,32 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="Numeric" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="84">
   <si>
     <t>#</t>
   </si>
@@ -100,16 +113,16 @@
     <t>Defense</t>
   </si>
   <si>
-    <t>症状</t>
-  </si>
-  <si>
-    <t>Symptom</t>
-  </si>
-  <si>
-    <t>暴击几率</t>
-  </si>
-  <si>
-    <t>CirtRate</t>
+    <t>破甲</t>
+  </si>
+  <si>
+    <t>Broken</t>
+  </si>
+  <si>
+    <t>暴击</t>
+  </si>
+  <si>
+    <t>Cirt</t>
   </si>
   <si>
     <t>暴击伤害</t>
@@ -154,12 +167,15 @@
     <t>IceAvoid</t>
   </si>
   <si>
+    <t>伤害加成比例 万比</t>
+  </si>
+  <si>
+    <t>HurtAddRate</t>
+  </si>
+  <si>
     <t>伤害增加比例 万比</t>
   </si>
   <si>
-    <t>HurtAddRate</t>
-  </si>
-  <si>
     <t>伤害减少比例 万比</t>
   </si>
   <si>
@@ -182,6 +198,36 @@
   </si>
   <si>
     <t>AvoidRate</t>
+  </si>
+  <si>
+    <t>格挡</t>
+  </si>
+  <si>
+    <t>Fender</t>
+  </si>
+  <si>
+    <t>直击</t>
+  </si>
+  <si>
+    <t>Direct</t>
+  </si>
+  <si>
+    <t>武器特性系数</t>
+  </si>
+  <si>
+    <t>WpXp</t>
+  </si>
+  <si>
+    <t>吸血率</t>
+  </si>
+  <si>
+    <t>Suck</t>
+  </si>
+  <si>
+    <t>治疗增加</t>
+  </si>
+  <si>
+    <t>HealAdd</t>
   </si>
   <si>
     <t>#直接使用的属性</t>
@@ -238,14 +284,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,31 +306,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -762,137 +788,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -901,24 +927,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1268,143 +1284,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B2:J40"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B2:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="3" customWidth="1"/>
-    <col min="6" max="10" width="12.25" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.1272727272727" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.6272727272727" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.6272727272727" style="3" customWidth="1"/>
+    <col min="4" max="4" width="36" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.6272727272727" style="3" customWidth="1"/>
+    <col min="6" max="10" width="12.2545454545455" style="3" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:10">
-      <c r="D2" s="4" t="s">
+    <row r="2" spans="4:9">
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="3:10">
-      <c r="C3" s="5" t="s">
+      <c r="H2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="13.5" spans="3:10">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="3:10">
-      <c r="C4" s="5" t="s">
+    <row r="4" ht="13.5" spans="3:10">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="3:10">
-      <c r="C5" s="5" t="s">
+    <row r="5" ht="13.5" spans="3:10">
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="13.5" spans="2:10">
-      <c r="B6" s="7" t="s">
+    <row r="6" customFormat="1" ht="14" spans="2:10">
+      <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="3:10">
       <c r="C7" s="1">
         <v>1000</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="1">
         <v>100</v>
       </c>
     </row>
@@ -1412,22 +1428,22 @@
       <c r="C8" s="1">
         <v>1001</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="1">
         <v>100</v>
       </c>
     </row>
@@ -1435,22 +1451,22 @@
       <c r="C9" s="1">
         <v>1002</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="1">
         <v>100</v>
       </c>
     </row>
@@ -1458,22 +1474,22 @@
       <c r="C10" s="1">
         <v>1003</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="1">
         <v>100</v>
       </c>
     </row>
@@ -1481,22 +1497,22 @@
       <c r="C11" s="1">
         <v>1004</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="1">
         <v>100</v>
       </c>
     </row>
@@ -1504,22 +1520,22 @@
       <c r="C12" s="1">
         <v>1005</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="1">
         <v>100</v>
       </c>
     </row>
@@ -1527,22 +1543,22 @@
       <c r="C13" s="1">
         <v>1006</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="1">
         <v>100</v>
       </c>
     </row>
@@ -1550,22 +1566,22 @@
       <c r="C14" s="1">
         <v>1007</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="1">
         <v>100</v>
       </c>
     </row>
@@ -1573,22 +1589,22 @@
       <c r="C15" s="1">
         <v>1008</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="1">
         <v>100</v>
       </c>
     </row>
@@ -1596,22 +1612,22 @@
       <c r="C16" s="1">
         <v>1009</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="1">
         <v>100</v>
       </c>
     </row>
@@ -1619,22 +1635,22 @@
       <c r="C17" s="1">
         <v>1010</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F17" s="3">
         <v>1</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="1">
         <v>100</v>
       </c>
     </row>
@@ -1642,22 +1658,22 @@
       <c r="C18" s="1">
         <v>1011</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F18" s="3">
         <v>1</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="1">
         <v>100</v>
       </c>
     </row>
@@ -1665,22 +1681,22 @@
       <c r="C19" s="1">
         <v>1012</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F19" s="3">
         <v>1</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="1">
         <v>100</v>
       </c>
     </row>
@@ -1688,22 +1704,22 @@
       <c r="C20" s="1">
         <v>1013</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>45</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="1">
         <v>100</v>
       </c>
     </row>
@@ -1711,22 +1727,22 @@
       <c r="C21" s="1">
         <v>1014</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>47</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
       </c>
-      <c r="H21" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J21" s="9">
+      <c r="H21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="1">
         <v>100</v>
       </c>
     </row>
@@ -1734,22 +1750,22 @@
       <c r="C22" s="1">
         <v>1015</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="D22" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="E22" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="F22" s="3">
         <v>1</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J22" s="9">
+      <c r="H22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="1">
         <v>100</v>
       </c>
     </row>
@@ -1757,22 +1773,22 @@
       <c r="C23" s="1">
         <v>1016</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="D23" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="E23" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="F23" s="3">
         <v>1</v>
       </c>
-      <c r="H23" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J23" s="9">
+      <c r="H23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J23" s="1">
         <v>100</v>
       </c>
     </row>
@@ -1780,22 +1796,22 @@
       <c r="C24" s="1">
         <v>1017</v>
       </c>
-      <c r="D24" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="D24" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="E24" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="F24" s="3">
         <v>1</v>
       </c>
-      <c r="H24" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J24" s="9">
+      <c r="H24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J24" s="1">
         <v>100</v>
       </c>
     </row>
@@ -1803,230 +1819,228 @@
       <c r="C25" s="1">
         <v>1018</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="4" t="s">
+      <c r="D25" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="E25" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F25" s="3">
         <v>1</v>
       </c>
-      <c r="H25" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J25" s="9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" ht="18" spans="2:10">
-      <c r="B26" s="10" t="s">
+      <c r="H25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10">
+      <c r="C26" s="1">
+        <v>1019</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J26" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10">
+      <c r="C27" s="1">
+        <v>1020</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J27" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10">
+      <c r="C28" s="1">
+        <v>1021</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J28" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10">
+      <c r="C29" s="1">
+        <v>1022</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10">
+      <c r="C30" s="1">
+        <v>1023</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J30" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" ht="17.5" spans="2:10">
+      <c r="B31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="11"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="10" t="s">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="7"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="2"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="B28" s="10" t="s">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="2"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="2"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="10" t="s">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="2"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="2"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30" s="10" t="s">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="2"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="2"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="B31" s="10" t="s">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="2"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="4"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="3:10">
-      <c r="C33" s="3">
-        <v>3001</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J33" s="3">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="3:10">
-      <c r="C34" s="3">
-        <v>3002</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J34" s="3">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="3:10">
-      <c r="C35" s="3">
-        <v>3003</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1"/>
-      <c r="H35" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J35" s="3">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="3:10">
-      <c r="C36" s="3">
-        <v>3004</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J36" s="3">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="3:10">
-      <c r="C37" s="3">
-        <v>3005</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J37" s="3">
-        <v>111</v>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="3:10">
       <c r="C38" s="3">
-        <v>3006</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="4" t="s">
+        <v>3001</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>68</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
       </c>
-      <c r="H38" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>67</v>
+      <c r="H38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="J38" s="3">
         <v>111</v>
@@ -2034,22 +2048,22 @@
     </row>
     <row r="39" spans="3:10">
       <c r="C39" s="3">
-        <v>3007</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E39" s="4" t="s">
+        <v>3002</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>70</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="F39" s="3">
         <v>0</v>
       </c>
-      <c r="H39" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>69</v>
+      <c r="H39" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="J39" s="3">
         <v>111</v>
@@ -2057,24 +2071,140 @@
     </row>
     <row r="40" spans="3:10">
       <c r="C40" s="3">
-        <v>3008</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E40" s="4" t="s">
+        <v>3003</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>72</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
       </c>
-      <c r="H40" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>71</v>
+      <c r="G40" s="1"/>
+      <c r="H40" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="J40" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10">
+      <c r="C41" s="3">
+        <v>3004</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J41" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10">
+      <c r="C42" s="3">
+        <v>3005</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J42" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10">
+      <c r="C43" s="3">
+        <v>3006</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J43" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10">
+      <c r="C44" s="3">
+        <v>3007</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J44" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10">
+      <c r="C45" s="3">
+        <v>3008</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J45" s="3">
         <v>111</v>
       </c>
     </row>

--- a/Excel/Numeric.xlsx
+++ b/Excel/Numeric.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Numeric" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="86">
   <si>
     <t>#</t>
   </si>
@@ -279,6 +279,12 @@
   </si>
   <si>
     <t>Hp</t>
+  </si>
+  <si>
+    <t>所在地图</t>
+  </si>
+  <si>
+    <t>LocalMap</t>
   </si>
 </sst>
 </file>
@@ -1285,20 +1291,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:J45"/>
+  <dimension ref="B2:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.1272727272727" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.6272727272727" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.6272727272727" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="36" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.6272727272727" style="3" customWidth="1"/>
-    <col min="6" max="10" width="12.2545454545455" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="3" customWidth="1"/>
+    <col min="6" max="10" width="12.2583333333333" style="3" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1316,7 +1322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="13.5" spans="3:10">
+    <row r="3" spans="3:10">
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1340,7 +1346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="13.5" spans="3:10">
+    <row r="4" spans="3:10">
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1364,7 +1370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="13.5" spans="3:10">
+    <row r="5" spans="3:10">
       <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
@@ -1388,7 +1394,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="14" spans="2:10">
+    <row r="6" customFormat="1" ht="13.5" spans="2:10">
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
@@ -1953,7 +1959,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" ht="17.5" spans="2:10">
+    <row r="31" ht="18" spans="2:10">
       <c r="B31" s="2" t="s">
         <v>0</v>
       </c>
@@ -2208,6 +2214,32 @@
         <v>111</v>
       </c>
     </row>
+    <row r="46" spans="3:10">
+      <c r="C46" s="3">
+        <v>3009</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/Numeric.xlsx
+++ b/Excel/Numeric.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="20490" windowHeight="7575"/>
   </bookViews>
   <sheets>
     <sheet name="Numeric" sheetId="1" r:id="rId1"/>
@@ -1293,8 +1293,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1420,6 +1420,9 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
+      <c r="G7" s="1">
+        <v>6</v>
+      </c>
       <c r="H7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1443,6 +1446,9 @@
       <c r="F8" s="3">
         <v>1</v>
       </c>
+      <c r="G8" s="3">
+        <v>100</v>
+      </c>
       <c r="H8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1465,6 +1471,9 @@
       </c>
       <c r="F9" s="3">
         <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>15000</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>23</v>

--- a/Excel/Numeric.xlsx
+++ b/Excel/Numeric.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCNUET8\ETSCNU\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4822D9AB-CE63-466E-B7E6-5B97A4662C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7575"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Numeric" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="94">
   <si>
     <t>#</t>
   </si>
@@ -285,19 +289,45 @@
   </si>
   <si>
     <t>LocalMap</t>
+  </si>
+  <si>
+    <t>智力</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>品德</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>优美</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CombatEffectiveness</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>法力值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mana</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,154 +353,24 @@
       <sz val="13.5"/>
       <color rgb="FF66C3CC"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,194 +383,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -678,251 +392,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -936,69 +408,27 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1285,30 +715,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:J46"/>
+  <dimension ref="B2:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.08984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" style="3" customWidth="1"/>
     <col min="4" max="4" width="36" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="3" customWidth="1"/>
-    <col min="6" max="10" width="12.2583333333333" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" style="3" customWidth="1"/>
+    <col min="6" max="10" width="12.26953125" style="3" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:9">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1322,7 +753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:10">
+    <row r="3" spans="2:10" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1346,7 +777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="3:10">
+    <row r="4" spans="2:10" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1370,7 +801,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="3:10">
+    <row r="5" spans="2:10" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
@@ -1394,20 +825,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="13.5" spans="2:10">
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="2:10" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="3:10">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>1000</v>
       </c>
@@ -1433,7 +864,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="3:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C8" s="1">
         <v>1001</v>
       </c>
@@ -1459,7 +890,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="3:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C9" s="1">
         <v>1002</v>
       </c>
@@ -1485,7 +916,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="3:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C10" s="1">
         <v>1003</v>
       </c>
@@ -1508,7 +939,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="3:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C11" s="1">
         <v>1004</v>
       </c>
@@ -1531,7 +962,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="3:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C12" s="1">
         <v>1005</v>
       </c>
@@ -1554,7 +985,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="3:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C13" s="1">
         <v>1006</v>
       </c>
@@ -1577,7 +1008,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="3:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C14" s="1">
         <v>1007</v>
       </c>
@@ -1600,7 +1031,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="3:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C15" s="1">
         <v>1008</v>
       </c>
@@ -1623,7 +1054,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="3:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C16" s="1">
         <v>1009</v>
       </c>
@@ -1646,7 +1077,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="3:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C17" s="1">
         <v>1010</v>
       </c>
@@ -1669,7 +1100,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C18" s="1">
         <v>1011</v>
       </c>
@@ -1692,7 +1123,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="3:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C19" s="1">
         <v>1012</v>
       </c>
@@ -1715,7 +1146,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="3:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C20" s="1">
         <v>1013</v>
       </c>
@@ -1738,7 +1169,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="3:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C21" s="1">
         <v>1014</v>
       </c>
@@ -1761,7 +1192,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="3:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C22" s="1">
         <v>1015</v>
       </c>
@@ -1784,7 +1215,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="3:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C23" s="1">
         <v>1016</v>
       </c>
@@ -1807,7 +1238,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="3:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C24" s="1">
         <v>1017</v>
       </c>
@@ -1830,7 +1261,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C25" s="1">
         <v>1018</v>
       </c>
@@ -1853,7 +1284,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="3:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C26" s="1">
         <v>1019</v>
       </c>
@@ -1876,7 +1307,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C27" s="1">
         <v>1020</v>
       </c>
@@ -1899,7 +1330,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="3:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C28" s="1">
         <v>1021</v>
       </c>
@@ -1922,7 +1353,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="3:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C29" s="1">
         <v>1022</v>
       </c>
@@ -1945,7 +1376,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C30" s="1">
         <v>1023</v>
       </c>
@@ -1968,18 +1399,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" ht="18" spans="2:10">
+    <row r="31" spans="2:10" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B31" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="7"/>
+      <c r="E31" s="6"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="2" t="s">
         <v>0</v>
       </c>
@@ -1990,7 +1421,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="2" t="s">
         <v>0</v>
       </c>
@@ -2001,7 +1432,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="2" t="s">
         <v>0</v>
       </c>
@@ -2012,7 +1443,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="2" t="s">
         <v>0</v>
       </c>
@@ -2023,7 +1454,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="2" t="s">
         <v>0</v>
       </c>
@@ -2033,17 +1464,17 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="3:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C38" s="3">
         <v>3001</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>68</v>
+      <c r="D38" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>69</v>
@@ -2061,12 +1492,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="3:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C39" s="3">
         <v>3002</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>70</v>
+      <c r="D39" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>71</v>
@@ -2084,12 +1515,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="3:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C40" s="3">
         <v>3003</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>72</v>
+      <c r="D40" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>73</v>
@@ -2108,12 +1539,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="3:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C41" s="3">
         <v>3004</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>74</v>
+      <c r="D41" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>75</v>
@@ -2131,7 +1562,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="3:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C42" s="3">
         <v>3005</v>
       </c>
@@ -2154,7 +1585,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="3:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C43" s="3">
         <v>3006</v>
       </c>
@@ -2177,7 +1608,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="3:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C44" s="3">
         <v>3007</v>
       </c>
@@ -2200,7 +1631,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="3:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C45" s="3">
         <v>3008</v>
       </c>
@@ -2223,7 +1654,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="3:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C46" s="3">
         <v>3009</v>
       </c>
@@ -2249,9 +1680,55 @@
         <v>0</v>
       </c>
     </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C47" s="3">
+        <v>3010</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J47" s="3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C48" s="3">
+        <v>3011</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J48" s="3">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/Numeric.xlsx
+++ b/Excel/Numeric.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCNUET8\ETSCNU\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4822D9AB-CE63-466E-B7E6-5B97A4662C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51251594-7746-48CC-ACB6-A7B13FC366CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="96">
   <si>
     <t>#</t>
   </si>
@@ -320,6 +320,14 @@
   </si>
   <si>
     <t>Mana</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -722,10 +730,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:J48"/>
+  <dimension ref="B2:J49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1726,6 +1734,29 @@
         <v>111</v>
       </c>
     </row>
+    <row r="49" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C49" s="3">
+        <v>3012</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Numeric.xlsx
+++ b/Excel/Numeric.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCNUET8\ETSCNU\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51251594-7746-48CC-ACB6-A7B13FC366CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57120ED4-1008-4C09-97B6-8888E9BFA1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="99">
   <si>
     <t>#</t>
   </si>
@@ -328,6 +328,17 @@
   </si>
   <si>
     <t>Exp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsAddPoint</t>
+  </si>
+  <si>
+    <t>是否用于加成点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -335,7 +346,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,6 +388,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -404,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -424,6 +443,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,10 +755,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:J49"/>
+  <dimension ref="B2:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -743,25 +768,29 @@
     <col min="3" max="3" width="12.6328125" style="3" customWidth="1"/>
     <col min="4" max="4" width="36" style="3" customWidth="1"/>
     <col min="5" max="5" width="11.6328125" style="3" customWidth="1"/>
-    <col min="6" max="10" width="12.26953125" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="14.90625" style="3" customWidth="1"/>
+    <col min="7" max="11" width="12.26953125" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>1</v>
+      <c r="F2" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="J2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="14" x14ac:dyDescent="0.4">
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
@@ -769,23 +798,26 @@
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:11" ht="14" x14ac:dyDescent="0.4">
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
@@ -793,23 +825,26 @@
       <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:11" ht="14" x14ac:dyDescent="0.4">
       <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
@@ -817,23 +852,26 @@
       <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:10" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -845,8 +883,9 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="2:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>1000</v>
       </c>
@@ -857,22 +896,25 @@
         <v>20</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
         <v>6</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C8" s="1">
         <v>1001</v>
       </c>
@@ -882,23 +924,26 @@
       <c r="E8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="3">
-        <v>1</v>
+      <c r="F8" s="1">
+        <v>0</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>100</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C9" s="1">
         <v>1002</v>
       </c>
@@ -908,23 +953,26 @@
       <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="3">
-        <v>1</v>
+      <c r="F9" s="1">
+        <v>0</v>
       </c>
       <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
         <v>15000</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C10" s="1">
         <v>1003</v>
       </c>
@@ -934,20 +982,23 @@
       <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>24</v>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C11" s="1">
         <v>1004</v>
       </c>
@@ -957,20 +1008,23 @@
       <c r="E11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>26</v>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C12" s="1">
         <v>1005</v>
       </c>
@@ -980,20 +1034,23 @@
       <c r="E12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>28</v>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C13" s="1">
         <v>1006</v>
       </c>
@@ -1003,20 +1060,23 @@
       <c r="E13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>30</v>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C14" s="1">
         <v>1007</v>
       </c>
@@ -1026,20 +1086,23 @@
       <c r="E14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>32</v>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C15" s="1">
         <v>1008</v>
       </c>
@@ -1049,20 +1112,23 @@
       <c r="E15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>34</v>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C16" s="1">
         <v>1009</v>
       </c>
@@ -1072,20 +1138,23 @@
       <c r="E16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>36</v>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C17" s="1">
         <v>1010</v>
       </c>
@@ -1095,20 +1164,23 @@
       <c r="E17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>38</v>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J17" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C18" s="1">
         <v>1011</v>
       </c>
@@ -1118,20 +1190,23 @@
       <c r="E18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>40</v>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J18" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C19" s="1">
         <v>1012</v>
       </c>
@@ -1141,20 +1216,23 @@
       <c r="E19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>42</v>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J19" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C20" s="1">
         <v>1013</v>
       </c>
@@ -1164,20 +1242,23 @@
       <c r="E20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>44</v>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J20" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C21" s="1">
         <v>1014</v>
       </c>
@@ -1187,20 +1268,23 @@
       <c r="E21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>48</v>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C22" s="1">
         <v>1015</v>
       </c>
@@ -1210,20 +1294,23 @@
       <c r="E22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>49</v>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J22" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C23" s="1">
         <v>1016</v>
       </c>
@@ -1233,20 +1320,23 @@
       <c r="E23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>51</v>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="J23" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C24" s="1">
         <v>1017</v>
       </c>
@@ -1256,20 +1346,23 @@
       <c r="E24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>53</v>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J24" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C25" s="1">
         <v>1018</v>
       </c>
@@ -1279,20 +1372,23 @@
       <c r="E25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>55</v>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J25" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K25" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C26" s="1">
         <v>1019</v>
       </c>
@@ -1302,20 +1398,23 @@
       <c r="E26" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>57</v>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J26" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K26" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C27" s="1">
         <v>1020</v>
       </c>
@@ -1325,20 +1424,23 @@
       <c r="E27" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>59</v>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J27" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C28" s="1">
         <v>1021</v>
       </c>
@@ -1348,20 +1450,23 @@
       <c r="E28" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>61</v>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J28" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K28" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C29" s="1">
         <v>1022</v>
       </c>
@@ -1371,20 +1476,23 @@
       <c r="E29" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>63</v>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J29" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C30" s="1">
         <v>1023</v>
       </c>
@@ -1394,90 +1502,98 @@
       <c r="E30" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>65</v>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J30" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="J30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K30" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="17.5" x14ac:dyDescent="0.35">
       <c r="B31" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="6"/>
-      <c r="H31" s="1"/>
+      <c r="F31" s="6"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B32" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="2"/>
-      <c r="H32" s="1"/>
+      <c r="F32" s="2"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B33" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="2"/>
-      <c r="H33" s="1"/>
+      <c r="F33" s="2"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B34" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="2"/>
-      <c r="H34" s="1"/>
+      <c r="F34" s="2"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B35" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="2"/>
-      <c r="H35" s="1"/>
+      <c r="F35" s="2"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B36" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B37" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C38" s="3">
         <v>3001</v>
       </c>
@@ -1488,19 +1604,22 @@
         <v>69</v>
       </c>
       <c r="F38" s="3">
-        <v>0</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>68</v>
+        <v>1</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K38" s="3">
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C39" s="3">
         <v>3002</v>
       </c>
@@ -1511,19 +1630,22 @@
         <v>71</v>
       </c>
       <c r="F39" s="3">
-        <v>0</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>70</v>
+        <v>1</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K39" s="3">
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C40" s="3">
         <v>3003</v>
       </c>
@@ -1534,20 +1656,23 @@
         <v>73</v>
       </c>
       <c r="F40" s="3">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1"/>
-      <c r="H40" s="3" t="s">
-        <v>72</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1"/>
       <c r="I40" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K40" s="3">
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C41" s="3">
         <v>3004</v>
       </c>
@@ -1558,19 +1683,22 @@
         <v>75</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>74</v>
+        <v>1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K41" s="3">
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C42" s="3">
         <v>3005</v>
       </c>
@@ -1583,17 +1711,20 @@
       <c r="F42" s="3">
         <v>0</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>76</v>
+      <c r="G42" s="3">
+        <v>0</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K42" s="3">
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C43" s="3">
         <v>3006</v>
       </c>
@@ -1606,17 +1737,20 @@
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>78</v>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K43" s="3">
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C44" s="3">
         <v>3007</v>
       </c>
@@ -1629,17 +1763,20 @@
       <c r="F44" s="3">
         <v>0</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>80</v>
+      <c r="G44" s="3">
+        <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K44" s="3">
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C45" s="3">
         <v>3008</v>
       </c>
@@ -1652,17 +1789,20 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>82</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K45" s="3">
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C46" s="3">
         <v>3009</v>
       </c>
@@ -1676,19 +1816,22 @@
         <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>1</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>84</v>
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J46" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C47" s="3">
         <v>3010</v>
       </c>
@@ -1701,17 +1844,20 @@
       <c r="F47" s="3">
         <v>0</v>
       </c>
-      <c r="H47" s="7" t="s">
-        <v>90</v>
+      <c r="G47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K47" s="3">
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C48" s="3">
         <v>3011</v>
       </c>
@@ -1724,17 +1870,20 @@
       <c r="F48" s="3">
         <v>0</v>
       </c>
-      <c r="H48" s="7" t="s">
-        <v>92</v>
+      <c r="G48" s="3">
+        <v>0</v>
       </c>
       <c r="I48" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K48" s="3">
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C49" s="3">
         <v>3012</v>
       </c>
@@ -1747,13 +1896,16 @@
       <c r="F49" s="3">
         <v>0</v>
       </c>
-      <c r="H49" s="7" t="s">
-        <v>94</v>
+      <c r="G49" s="3">
+        <v>0</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K49" s="3">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Numeric.xlsx
+++ b/Excel/Numeric.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCNUET8\ETSCNU\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57120ED4-1008-4C09-97B6-8888E9BFA1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A83AAB-D796-414E-9635-76EC66D66BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="1100" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Numeric" sheetId="1" r:id="rId1"/>
@@ -757,8 +757,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>84</v>

--- a/Excel/Numeric.xlsx
+++ b/Excel/Numeric.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCNUET8\ETSCNU\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A83AAB-D796-414E-9635-76EC66D66BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C3CFB7-0AB2-4410-96D7-21A286035E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1100" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Numeric" sheetId="1" r:id="rId1"/>
@@ -758,7 +758,7 @@
   <dimension ref="B2:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>84</v>
